--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/MINNESOTA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/MINNESOTA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1088"/>
+  <dimension ref="A1:D1082"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C6">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C23">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C28">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C43">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C47">
@@ -1283,7 +1283,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C69">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C85">
@@ -1717,7 +1717,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C102">
@@ -1852,7 +1852,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1909,7 +1909,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C116">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C141">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C145">
@@ -2382,12 +2382,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C152">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C155">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C160">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C166">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C170">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C174">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C177">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C184">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C192">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C193">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C194">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C201">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C208">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C213">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C216">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C227">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C234">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C238">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C244">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C248">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C250">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C253">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C254">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C259">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C263">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C266">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C271">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C274">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C280">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C286">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C291">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C300">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C302">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C318">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C320">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C325">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C335">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C339">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C342">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C354">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C356">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C362">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C366">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C368">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C374">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C375">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C377">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C384">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C391">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C393">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C397">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C401">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C406">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C409">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C413">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C418">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C420">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C421">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C428">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C429">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C431">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C433">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C434">
@@ -6286,7 +6286,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C450">
@@ -6566,7 +6566,7 @@
         <v>60</v>
       </c>
       <c r="D471">
-        <v>0.009312432096849293</v>
+        <v>0.009312432096849291</v>
       </c>
     </row>
     <row r="472">
@@ -7240,7 +7240,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C523">
@@ -7292,7 +7292,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C527">
@@ -7383,7 +7383,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C534">
@@ -7474,7 +7474,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C541">
@@ -7518,7 +7518,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C544">
@@ -7596,7 +7596,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C550">
@@ -7861,7 +7861,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C570">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C575">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C577">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C581">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C587">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C588">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C589">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C598">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C606">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C619">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C625">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C641">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C642">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C656">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C662">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C669">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C706">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C707">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C709">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C710">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C711">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C713">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C715">
@@ -9977,7 +9977,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C732">
@@ -10055,7 +10055,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C738">
@@ -10107,7 +10107,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C742">
@@ -10250,7 +10250,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C753">
@@ -10263,7 +10263,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C754">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C756">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C757">
@@ -10328,7 +10328,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C759">
@@ -10419,7 +10419,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C766">
@@ -10458,7 +10458,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C769">
@@ -10601,7 +10601,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C780">
@@ -10614,7 +10614,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C781">
@@ -10640,7 +10640,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C783">
@@ -10731,7 +10731,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C790">
@@ -10796,7 +10796,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C795">
@@ -10822,7 +10822,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C797">
@@ -10874,7 +10874,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C801">
@@ -11017,7 +11017,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C812">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C823">
@@ -11191,7 +11191,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C825">
@@ -11243,7 +11243,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C829">
@@ -11282,7 +11282,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C832">
@@ -11308,7 +11308,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C834">
@@ -11448,7 +11448,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C844">
@@ -11461,7 +11461,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C845">
@@ -11513,7 +11513,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C849">
@@ -11591,7 +11591,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C855">
@@ -11643,7 +11643,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C859">
@@ -11773,7 +11773,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C869">
@@ -11786,7 +11786,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C870">
@@ -11799,7 +11799,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C871">
@@ -12630,7 +12630,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C933">
@@ -12656,7 +12656,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C935">
@@ -12682,7 +12682,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C937">
@@ -12908,7 +12908,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C954">
@@ -12986,7 +12986,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C960">
@@ -13012,7 +13012,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C962">
@@ -13142,7 +13142,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C972">
@@ -13285,7 +13285,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C983">
@@ -13298,7 +13298,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C984">
@@ -13324,7 +13324,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C986">
@@ -13402,7 +13402,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C992">
@@ -13428,7 +13428,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C994">
@@ -13467,7 +13467,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C997">
@@ -13506,7 +13506,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1000">
@@ -13571,7 +13571,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1005">
@@ -13688,7 +13688,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1014">
@@ -13727,7 +13727,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1017">
@@ -13805,7 +13805,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1023">
@@ -14000,7 +14000,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1038">
@@ -14335,7 +14335,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1063">
@@ -14348,7 +14348,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1064">
@@ -14361,7 +14361,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1065">
@@ -14478,7 +14478,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1074">
@@ -14517,7 +14517,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1077">
@@ -14590,41 +14590,6 @@
       </c>
       <c r="D1082">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
